--- a/sfe209_gcs_analysis/0_SFE_209_RiverBuilder_metrics.xlsx
+++ b/sfe209_gcs_analysis/0_SFE_209_RiverBuilder_metrics.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\usu-RiverBuilder\sfe209_gcs_analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEC2F7E5-5422-423D-8F7F-FBE126D83AF2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{815D9F85-4442-49B5-A872-1161F0056F71}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12570" yWindow="555" windowWidth="15105" windowHeight="14415" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13125" yWindow="735" windowWidth="15105" windowHeight="14415" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="spatial_series_v1" sheetId="3" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="63">
   <si>
     <t>Thalweg length</t>
   </si>
@@ -207,6 +207,9 @@
   </si>
   <si>
     <t>v2</t>
+  </si>
+  <si>
+    <t>WSE_bf-Z</t>
   </si>
 </sst>
 </file>
@@ -10708,8 +10711,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DCC2D65-C375-4812-B2FB-7B9510D35E49}">
   <dimension ref="A1:AB998"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="W1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AF29" sqref="AF29"/>
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="Y20" sqref="Y20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -10783,7 +10786,7 @@
         <v>13</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="L2" s="24" t="s">
         <v>6</v>
@@ -11026,8 +11029,8 @@
         <v>59</v>
       </c>
       <c r="Y6" s="7">
-        <f>MIN(J3:J83-C3:C83)</f>
-        <v>1.4950000000000045</v>
+        <f>MIN(K3:K83)</f>
+        <v>0.71399999999994179</v>
       </c>
       <c r="Z6" t="s">
         <v>10</v>
@@ -11447,7 +11450,7 @@
       </c>
       <c r="W14" s="8"/>
       <c r="X14" s="8" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="Y14" s="8" t="s">
         <v>27</v>
@@ -11674,9 +11677,7 @@
       <c r="V18" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="X18" s="8" t="s">
-        <v>39</v>
-      </c>
+      <c r="X18" s="8"/>
       <c r="Y18" s="8"/>
     </row>
     <row r="19" spans="1:28" x14ac:dyDescent="0.25">
@@ -14910,7 +14911,7 @@
       <c r="J84" s="39">
         <v>994.78499999999997</v>
       </c>
-      <c r="K84" s="39">
+      <c r="K84" s="27">
         <f t="shared" si="10"/>
         <v>1.7809999999999491</v>
       </c>
@@ -14954,7 +14955,7 @@
       <c r="J85" s="39">
         <v>994.36599999999999</v>
       </c>
-      <c r="K85" s="39">
+      <c r="K85" s="27">
         <f t="shared" si="10"/>
         <v>1.2849999999999682</v>
       </c>
@@ -14998,7 +14999,7 @@
       <c r="J86" s="39">
         <v>994.59</v>
       </c>
-      <c r="K86" s="39">
+      <c r="K86" s="27">
         <f t="shared" si="10"/>
         <v>1.4959999999999809</v>
       </c>
@@ -15042,7 +15043,7 @@
       <c r="J87" s="39">
         <v>994.59299999999996</v>
       </c>
-      <c r="K87" s="39">
+      <c r="K87" s="27">
         <f t="shared" si="10"/>
         <v>1.4539999999999509</v>
       </c>
@@ -15086,7 +15087,7 @@
       <c r="J88" s="39">
         <v>994.42200000000003</v>
       </c>
-      <c r="K88" s="39">
+      <c r="K88" s="27">
         <f t="shared" si="10"/>
         <v>1.2130000000000791</v>
       </c>
